--- a/target/classes/com/ivy/qa/testdata/data.xlsx
+++ b/target/classes/com/ivy/qa/testdata/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AAFFF3-281A-4EBA-981D-3C4F0EE36228}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30374B6D-5857-4318-A190-77C26EAABA65}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="171">
   <si>
     <t>S#</t>
   </si>
@@ -444,9 +444,6 @@
     <t>PayOut Structure</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
@@ -459,9 +456,6 @@
     <t>Specify Occurance and Schedule</t>
   </si>
   <si>
-    <t>0.02</t>
-  </si>
-  <si>
     <t>new payout</t>
   </si>
   <si>
@@ -477,18 +471,12 @@
     <t>Template Id</t>
   </si>
   <si>
-    <t xml:space="preserve"> tounry</t>
-  </si>
-  <si>
     <t>Players List To Register</t>
   </si>
   <si>
     <t>Players List</t>
   </si>
   <si>
-    <t>pp_stg1,pp_stg2,pp_stg3</t>
-  </si>
-  <si>
     <t>Brands</t>
   </si>
   <si>
@@ -565,6 +553,270 @@
   </si>
   <si>
     <t>PARTYES</t>
+  </si>
+  <si>
+    <t>run tounry</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>pp_pokerautoag10
+pp_pokerauto365
+pp_party341
+pp_personal3
+pp_pokerauto1028
+pp_pokerauto1345
+pp_pokerautoag1
+pp_pokerauto1191
+pp_pokerauto1173
+pp_pp2
+pp_pokerauto1180
+pp_pokerauto1280
+pp_pokerauto1250
+pp_poker370
+pp_ppt3
+pp_ppt5
+pp_personal4
+pp_ppt8
+pp_pokerauto1201
+pp_ppt2
+pp_ppt1
+pp_ppt4
+pp_pokerauto200
+pp_pokerauto201
+pp_pokerauto1183
+pp_pokerauto1190
+pp_pokerauto320
+pp_pokerauto1200
+pp_partyplayer2
+pp_partyplayer1
+pp_plrnote25
+pp_partyplayer4
+pp_partyplayer5
+pp_partyplayer6
+pp_partyplayer8
+pp_partyplayer9
+pp_partyplayer10
+pp_partyplayer3
+pp_partyplayer7
+pp_pokerplayer110
+pp_pokerplayer18
+pp_pokerplayer17
+pp_pokerplayer16
+pp_pokerplayer15
+pp_pokerplayer14
+pp_pokerplayer13
+pp_pokerplayer12
+pp_pokerplayer11
+pp_pokerauto1179
+pp_preflop7
+pp_pp6
+pp_plrnote24
+pp_plrnote23
+pp_pokerauto1403
+pp_pokerauto1402
+pp_pokerauto400
+pp_pokerauto1401
+pp_partyuser901
+pp_personal1
+pp_preflop5
+pp_preflop9
+pp_personal2
+pp_plrnote22
+pp_plrnote21
+pp_pokerauto4
+pp_plrnote30
+pp_plrnote29
+pp_plrnote28
+pp_plrnote27
+pp_plrnote26
+pp_plrnote20
+pp_plrnote19
+pp_pokerauto1220
+pp_party101
+pp_pokerauto1416
+pp_poker386
+pp_poker391
+pp_pp5
+pp_pokerauto1292
+pp_personal5
+pp_pokerauto1414
+pp_poker380
+pp_poker381
+pp_pp3
+pp_pokerauto1290
+pp_pokerauto1298
+pp_pokerauto1291
+pp_pokerauto1288
+pp_pokerauto1417
+pp_partyuser902
+pp_partyuser903
+pp_partyuser904
+pp_partyuser905
+pp_pokerauto1230
+pp_pokerauto300
+pp_plrnote17
+pp_personal6
+pp_party501
+pp_party362
+pp_ppinter26
+pp_poker383
+pp_plrnote18
+pp_pokerauto1
+pp_ppuser2
+pp_preflop8
+pp_pokerauto1175
+pp_preflop3
+pp_pokerautoag3
+pp_pokerauto1299
+pp_pokerautoag9
+pp_plrnote15
+pp_party339
+pp_pokerauto334
+pp_party399
+pp_pokerautoag8
+pp_plrnote16
+pp_party333
+pp_pokerauto1171
+pp_plrnote14
+pp_plrnote13
+pp_preflop10
+pp_pp4
+pp_preflop4
+pp_pokerauto401
+pp_party365
+pp_pokerauto1346
+pp_pokerauto1285
+pp_preflop2
+pp_pokerauto1255
+pp_pokerauto1245
+pp_postflop3
+pp_pokerauto2
+pp_pokerauto523
+pp_poker382
+pp_plrnote12
+pp_plrnote5
+pp_personal8
+pp_ppinter8
+pp_ppinter22
+pp_ppinter7
+pp_ppcom7
+pp_ppokertst1
+pp_ppcm7
+pp_ppcm1
+pp_pokerautoag2
+pp_pokerauto1408
+pp_pokerauto1407
+pp_plrnote11
+pp_plrnote1
+pp_pokerauto1405
+pp_pokerauto347
+pp_pokerauto892
+pp_pokerauto615
+pp_pokerauto889
+pp_pokerauto891
+pp_ppcad1
+pp_pokerauto890
+pp_pokerauto1235
+pp_plrnote9
+pp_poker357
+pp_poker356
+pp_party392
+pp_party380
+pp_party312
+pp_poker344
+pp_poker343
+pp_plrnote10
+pp_plrnote8
+pp_pokerauto340
+pp_plrnote7
+pp_party300
+pp_ppt6
+pp_pokerauto517
+pp_pokerauto1278
+pp_pokerauto1293
+pp_party342
+pp_plrnote6
+pp_pokerauto6
+pp_plrnote4
+pp_plrnote3
+pp_plrnote2
+pp_ppokertst2
+pp_ppokertst3
+pp_pokerauto221
+pp_poker366
+pp_poker365
+pp_poker364
+pp_poker360
+pp_personal9
+pp_personal7
+pp_poker345
+pp_pokerauto1344
+pp_party370
+pp_pokerautoag5
+pp_pokerchat2
+pp_pokerchat1
+pp_party123
+pp_partyuser
+pp_poker375
+pp_pokerauto1210
+pp_postflop5
+pp_pokerauto1420
+pp_pokerauto1500
+pp_pokerauto1406
+pp_preflop1
+pp_postflop8
+pp_postflop7
+pp_postflop9
+pp_postflop10
+pp_preflop6
+pp_postflop1
+pp_postflop2
+pp_postflop4
+pp_postflop6
+pp_pokerauto350
+pp_pokerauto1409
+pp_pokerauto1129
+pp_promodevpp5VZ1
+pp_promodevppOYL1
+pp_pcuser
+pp_pokerauto1430
+pp_party330
+pp_ppt12
+pp_pokerauto1431
+pp_plmok88
+pp_poker348
+pp_partyqatest
+pp_pokerauto101
+pp_ppsr01
+pp_pokerauto1233
+pp_pokerauto1244
+pp_pushchat499
+pp_pokerauto1202
+pp_ppt7
+pp_pokerauto1185
+pp_poker346
+pp_ppfast15
+pp_ppfast22
+pp_partpoke
+pp_ppkrsr6
+pp_pushchat399
+pp_ppuser1
+pp_pushchat299
+pp_pushchat199
+pp_party363
+pp_pokerauto1312
+pp_pokerauto1311
+pp_pokerauto1315
+pp_pokerauto1314
+pp_pokerauto1313
+pp_pokerauto1316
+pp_pokerauto1317
+pp_pokerauto1178
+pp_poker339
+pp_pokerauto1325
+pp_pokerauto1328</t>
   </si>
 </sst>
 </file>
@@ -633,7 +885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -662,6 +914,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -949,8 +1204,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -962,13 +1217,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
       <c r="F2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -979,15 +1234,15 @@
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -1008,7 +1263,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1018,7 +1273,7 @@
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1063,7 +1318,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1096,7 +1351,7 @@
         <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1107,7 +1362,7 @@
         <v>55</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1118,7 +1373,7 @@
         <v>56</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>136</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1162,7 +1417,7 @@
         <v>125</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1228,7 +1483,7 @@
         <v>129</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1239,7 +1494,7 @@
         <v>130</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1248,18 +1503,18 @@
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="A31" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>23</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C32" s="10">
         <v>44328</v>
@@ -1270,10 +1525,10 @@
         <v>24</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C33" s="7">
-        <v>43901</v>
+        <v>43916</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1282,21 +1537,21 @@
       <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+    </row>
+    <row r="36" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>25</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1304,10 +1559,10 @@
         <v>26</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1317,22 +1572,19 @@
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="A35:C35"/>
   </mergeCells>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12 C25 C22" xr:uid="{4EECEC62-27AE-40F6-9332-A4580B654015}">
       <formula1>INDIRECT(C11)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C37" xr:uid="{217C4229-BD4F-4222-846B-E18F6811655B}">
       <formula1>INDIRECT(_xlnm.Extract)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9" xr:uid="{8D27C669-F8F3-4655-AF98-72AED3680EAC}">
-      <formula1>COM</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="11">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{47350E0B-4B3C-499E-A0A0-5FB8CC53E734}">
           <x14:formula1>
             <xm:f>list!$A$2:$A$5</xm:f>
@@ -1393,6 +1645,12 @@
           </x14:formula1>
           <xm:sqref>C27</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{68D4F910-531A-4DF8-905A-FD3A880ADC65}">
+          <x14:formula1>
+            <xm:f>list!$C$2:$C$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C9</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -1480,7 +1738,7 @@
         <v>118</v>
       </c>
       <c r="N1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -1488,7 +1746,7 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1524,7 +1782,7 @@
         <v>53</v>
       </c>
       <c r="N2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -1532,7 +1790,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1568,7 +1826,7 @@
         <v>119</v>
       </c>
       <c r="N3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1576,7 +1834,7 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -1597,7 +1855,7 @@
         <v>120</v>
       </c>
       <c r="N4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -1614,7 +1872,7 @@
         <v>121</v>
       </c>
       <c r="N5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1625,7 +1883,7 @@
         <v>63</v>
       </c>
       <c r="N6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -1636,7 +1894,7 @@
         <v>64</v>
       </c>
       <c r="N7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -1647,7 +1905,7 @@
         <v>65</v>
       </c>
       <c r="N8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -1655,7 +1913,7 @@
         <v>66</v>
       </c>
       <c r="N9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -1663,7 +1921,7 @@
         <v>67</v>
       </c>
       <c r="N10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -1671,7 +1929,7 @@
         <v>68</v>
       </c>
       <c r="N11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -1679,7 +1937,7 @@
         <v>69</v>
       </c>
       <c r="N12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1687,7 +1945,7 @@
         <v>70</v>
       </c>
       <c r="N13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1695,7 +1953,7 @@
         <v>71</v>
       </c>
       <c r="N14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1703,7 +1961,7 @@
         <v>72</v>
       </c>
       <c r="N15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1711,7 +1969,7 @@
         <v>73</v>
       </c>
       <c r="N16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="10:14" x14ac:dyDescent="0.3">
@@ -1719,7 +1977,7 @@
         <v>74</v>
       </c>
       <c r="N17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="10:14" x14ac:dyDescent="0.3">
@@ -1727,7 +1985,7 @@
         <v>75</v>
       </c>
       <c r="N18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="10:14" x14ac:dyDescent="0.3">
@@ -1735,7 +1993,7 @@
         <v>76</v>
       </c>
       <c r="N19" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="10:14" x14ac:dyDescent="0.3">
@@ -1914,13 +2172,13 @@
         <v>6</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="2:22" x14ac:dyDescent="0.3">
@@ -1964,13 +2222,13 @@
         <v>11</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.3">
@@ -1993,13 +2251,13 @@
         <v>11</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="U3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
@@ -2019,13 +2277,13 @@
         <v>12</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
@@ -2039,11 +2297,11 @@
         <v>9</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.3">
@@ -2057,7 +2315,7 @@
         <v>14</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
@@ -2070,7 +2328,7 @@
         <v>64</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
@@ -2083,7 +2341,7 @@
         <v>65</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
@@ -2096,7 +2354,7 @@
         <v>66</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
@@ -2106,7 +2364,7 @@
         <v>67</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
@@ -2116,7 +2374,7 @@
         <v>68</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
@@ -2126,7 +2384,7 @@
         <v>69</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
@@ -2136,7 +2394,7 @@
         <v>70</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
@@ -2146,7 +2404,7 @@
         <v>71</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
@@ -2156,7 +2414,7 @@
         <v>72</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
@@ -2166,7 +2424,7 @@
         <v>73</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -2176,7 +2434,7 @@
         <v>74</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
@@ -2186,7 +2444,7 @@
         <v>75</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
@@ -2196,7 +2454,7 @@
         <v>76</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
